--- a/src/main/java/Test_Data/TestData.xlsx
+++ b/src/main/java/Test_Data/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -35,31 +35,19 @@
     <t>WhyWork</t>
   </si>
   <si>
-    <t>Run Status</t>
-  </si>
-  <si>
-    <t>Label Message</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>You need to upload at least one file.</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Mandla Mzize</t>
   </si>
   <si>
-    <t>mmzize@ilab.com</t>
-  </si>
-  <si>
-    <t>I see my self grow with the company and also using the skills I have acquired througout my career to help the company grow</t>
+    <t>automationAssessment@iLABQuality.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>I see my self grow with the company and also using the skills I have acquired throughout my career to help the company grow</t>
   </si>
 </sst>
 </file>
@@ -104,9 +92,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -388,61 +377,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="28" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -450,5 +427,6 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>